--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_TarisHN.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_TarisHN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="TG102V" sheetId="36" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="106">
   <si>
     <t>STT</t>
   </si>
@@ -346,6 +346,12 @@
   </si>
   <si>
     <t>LK, NCFW</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim</t>
+  </si>
+  <si>
+    <t>CS</t>
   </si>
 </sst>
 </file>
@@ -1090,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1322,19 +1328,25 @@
       <c r="J6" s="1"/>
       <c r="K6" s="52"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="N6" s="41"/>
-      <c r="O6" s="40"/>
+      <c r="O6" s="40" t="s">
+        <v>61</v>
+      </c>
       <c r="P6" s="40" t="s">
         <v>62</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="R6" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="S6" s="4"/>
+      <c r="S6" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="T6" s="64"/>
       <c r="U6" s="66" t="s">
         <v>18</v>
@@ -1771,7 +1783,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -1835,7 +1847,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -2883,13 +2895,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2901,6 +2906,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2911,8 +2923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="E4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView showZeros="0" topLeftCell="E4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4986,13 +4998,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5004,6 +5009,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6771,13 +6783,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6789,6 +6794,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_TarisHN.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_TarisHN.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="108">
   <si>
     <t>STT</t>
   </si>
@@ -348,10 +348,16 @@
     <t>LK, NCFW</t>
   </si>
   <si>
-    <t>Nâng cấp khay sim</t>
-  </si>
-  <si>
     <t>CS</t>
+  </si>
+  <si>
+    <t>VI.1.00.---01.180320</t>
+  </si>
+  <si>
+    <t>203.162.69.75,30051</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim+FW</t>
   </si>
 </sst>
 </file>
@@ -751,6 +757,30 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -763,31 +793,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1097,7 +1103,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1129,43 +1135,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -1210,58 +1216,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -1286,23 +1292,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1324,12 +1330,18 @@
         <v>64</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="60"/>
+      <c r="I6" s="60" t="s">
+        <v>106</v>
+      </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="1"/>
+      <c r="K6" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="M6" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="N6" s="41"/>
       <c r="O6" s="40" t="s">
@@ -1345,10 +1357,10 @@
         <v>24</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="T6" s="64"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1401,7 +1413,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1430,7 +1442,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1459,7 +1471,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1488,7 +1500,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1517,7 +1529,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1546,7 +1558,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1577,7 +1589,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1606,7 +1618,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1635,7 +1647,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1664,7 +1676,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2895,6 +2907,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2906,13 +2925,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2956,43 +2968,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -3037,58 +3049,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -3113,23 +3125,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3181,7 +3193,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3240,7 +3252,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3297,7 +3309,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3354,7 +3366,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3409,7 +3421,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3462,7 +3474,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3515,7 +3527,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3576,7 +3588,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3635,7 +3647,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3688,7 +3700,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3743,7 +3755,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4998,6 +5010,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5009,13 +5028,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5059,43 +5071,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -5140,58 +5152,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -5216,23 +5228,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5258,7 +5270,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5289,7 +5301,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5318,7 +5330,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5347,7 +5359,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5376,7 +5388,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5405,7 +5417,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5434,7 +5446,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5465,7 +5477,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5494,7 +5506,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5523,7 +5535,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5552,7 +5564,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6783,6 +6795,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6794,13 +6813,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_TarisHN.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_TarisHN.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="109">
   <si>
     <t>STT</t>
   </si>
@@ -358,6 +358,9 @@
   </si>
   <si>
     <t>Nâng cấp khay sim+FW</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
   </si>
 </sst>
 </file>
@@ -757,9 +760,24 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -779,21 +797,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1102,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1135,43 +1138,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -1216,58 +1219,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="71" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -1292,23 +1295,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="71"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1318,7 +1321,9 @@
       <c r="B6" s="37">
         <v>44384</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44389</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>75</v>
       </c>
@@ -1333,7 +1338,9 @@
       <c r="I6" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="K6" s="52" t="s">
         <v>105</v>
       </c>
@@ -1360,7 +1367,7 @@
         <v>104</v>
       </c>
       <c r="T6" s="64"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1375,7 +1382,9 @@
       <c r="B7" s="37">
         <v>44384</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44389</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>75</v>
       </c>
@@ -1413,7 +1422,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1442,7 +1451,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1471,7 +1480,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1500,7 +1509,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1529,7 +1538,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1558,7 +1567,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="66" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1589,7 +1598,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1618,7 +1627,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1647,7 +1656,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1676,7 +1685,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2907,13 +2916,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2925,6 +2927,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2935,8 +2944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="E4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView showZeros="0" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2968,43 +2977,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -3049,58 +3058,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="71" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -3125,23 +3134,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="71"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3151,7 +3160,9 @@
       <c r="B6" s="37">
         <v>44384</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44389</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>44</v>
       </c>
@@ -3193,7 +3204,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3208,7 +3219,9 @@
       <c r="B7" s="37">
         <v>44384</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44389</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>44</v>
       </c>
@@ -3252,7 +3265,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3265,7 +3278,9 @@
       <c r="B8" s="37">
         <v>44384</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37">
+        <v>44389</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>44</v>
       </c>
@@ -3309,7 +3324,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3322,7 +3337,9 @@
       <c r="B9" s="37">
         <v>44384</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="37">
+        <v>44389</v>
+      </c>
       <c r="D9" s="38" t="s">
         <v>44</v>
       </c>
@@ -3366,7 +3383,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3379,7 +3396,9 @@
       <c r="B10" s="37">
         <v>44384</v>
       </c>
-      <c r="C10" s="37"/>
+      <c r="C10" s="37">
+        <v>44389</v>
+      </c>
       <c r="D10" s="38" t="s">
         <v>44</v>
       </c>
@@ -3421,7 +3440,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3434,7 +3453,9 @@
       <c r="B11" s="37">
         <v>44384</v>
       </c>
-      <c r="C11" s="37"/>
+      <c r="C11" s="37">
+        <v>44389</v>
+      </c>
       <c r="D11" s="38" t="s">
         <v>44</v>
       </c>
@@ -3474,7 +3495,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3487,7 +3508,9 @@
       <c r="B12" s="37">
         <v>44384</v>
       </c>
-      <c r="C12" s="37"/>
+      <c r="C12" s="37">
+        <v>44389</v>
+      </c>
       <c r="D12" s="38" t="s">
         <v>44</v>
       </c>
@@ -3527,7 +3550,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="66" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3542,7 +3565,9 @@
       <c r="B13" s="37">
         <v>44384</v>
       </c>
-      <c r="C13" s="37"/>
+      <c r="C13" s="37">
+        <v>44389</v>
+      </c>
       <c r="D13" s="38" t="s">
         <v>44</v>
       </c>
@@ -3588,7 +3613,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3601,7 +3626,9 @@
       <c r="B14" s="37">
         <v>44384</v>
       </c>
-      <c r="C14" s="37"/>
+      <c r="C14" s="37">
+        <v>44389</v>
+      </c>
       <c r="D14" s="38" t="s">
         <v>44</v>
       </c>
@@ -3647,7 +3674,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3660,7 +3687,9 @@
       <c r="B15" s="37">
         <v>44384</v>
       </c>
-      <c r="C15" s="37"/>
+      <c r="C15" s="37">
+        <v>44389</v>
+      </c>
       <c r="D15" s="38" t="s">
         <v>44</v>
       </c>
@@ -3700,7 +3729,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3713,7 +3742,9 @@
       <c r="B16" s="37">
         <v>44384</v>
       </c>
-      <c r="C16" s="37"/>
+      <c r="C16" s="37">
+        <v>44389</v>
+      </c>
       <c r="D16" s="38" t="s">
         <v>44</v>
       </c>
@@ -3755,7 +3786,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3768,7 +3799,9 @@
       <c r="B17" s="37">
         <v>44384</v>
       </c>
-      <c r="C17" s="37"/>
+      <c r="C17" s="37">
+        <v>44389</v>
+      </c>
       <c r="D17" s="38" t="s">
         <v>44</v>
       </c>
@@ -5010,13 +5043,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5028,6 +5054,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5071,43 +5104,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -5152,58 +5185,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="71" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -5228,23 +5261,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="71"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5270,7 +5303,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5301,7 +5334,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5330,7 +5363,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5359,7 +5392,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5388,7 +5421,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5417,7 +5450,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5446,7 +5479,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="66" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5477,7 +5510,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5506,7 +5539,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5535,7 +5568,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5564,7 +5597,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6795,13 +6828,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6813,6 +6839,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_TarisHN.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_TarisHN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang7\2.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang7\2.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102V" sheetId="36" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="109">
   <si>
     <t>STT</t>
   </si>
@@ -563,7 +563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -688,9 +688,6 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -715,9 +712,6 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -760,6 +754,30 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -772,31 +790,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1105,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showZeros="0" topLeftCell="H1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1119,7 +1113,7 @@
     <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
     <col min="7" max="7" width="17" style="20" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="63" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="61" customWidth="1"/>
     <col min="10" max="10" width="53" style="20" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
@@ -1138,46 +1132,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="47"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="57"/>
+      <c r="I2" s="55"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="22"/>
@@ -1202,7 +1196,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="58"/>
+      <c r="I3" s="56"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -1219,100 +1213,100 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="48"/>
+      <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
-      <c r="B5" s="65" t="s">
+      <c r="A5" s="69"/>
+      <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
-      <c r="K5" s="65" t="s">
+      <c r="J5" s="64"/>
+      <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="65" t="s">
+      <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
-      <c r="W5" s="48"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
+      <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1335,13 +1329,13 @@
         <v>64</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="58" t="s">
         <v>106</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K6" s="52" t="s">
+      <c r="K6" s="50" t="s">
         <v>105</v>
       </c>
       <c r="L6" s="1" t="s">
@@ -1366,14 +1360,14 @@
       <c r="S6" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="T6" s="64"/>
-      <c r="U6" s="66" t="s">
+      <c r="T6" s="62"/>
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="64"/>
+      <c r="W6" s="62"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -1391,7 +1385,7 @@
       <c r="E7" s="39">
         <v>868345035601244</v>
       </c>
-      <c r="F7" s="55"/>
+      <c r="F7" s="53"/>
       <c r="G7" s="38" t="s">
         <v>64</v>
       </c>
@@ -1421,12 +1415,12 @@
         <v>25</v>
       </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="67"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="64"/>
+      <c r="W7" s="62"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -1436,10 +1430,10 @@
       <c r="C8" s="37"/>
       <c r="D8" s="38"/>
       <c r="E8" s="39"/>
-      <c r="F8" s="55"/>
+      <c r="F8" s="53"/>
       <c r="G8" s="38"/>
       <c r="H8" s="38"/>
-      <c r="I8" s="60"/>
+      <c r="I8" s="58"/>
       <c r="J8" s="40"/>
       <c r="K8" s="1"/>
       <c r="L8" s="40"/>
@@ -1450,12 +1444,12 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="67"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="64"/>
+      <c r="W8" s="62"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1465,10 +1459,10 @@
       <c r="C9" s="37"/>
       <c r="D9" s="38"/>
       <c r="E9" s="39"/>
-      <c r="F9" s="55"/>
+      <c r="F9" s="53"/>
       <c r="G9" s="38"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="50"/>
+      <c r="I9" s="49"/>
       <c r="J9" s="40"/>
       <c r="K9" s="40"/>
       <c r="L9" s="1"/>
@@ -1479,12 +1473,12 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="67"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="64"/>
+      <c r="W9" s="62"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -1494,10 +1488,10 @@
       <c r="C10" s="37"/>
       <c r="D10" s="38"/>
       <c r="E10" s="39"/>
-      <c r="F10" s="55"/>
+      <c r="F10" s="53"/>
       <c r="G10" s="38"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="60"/>
+      <c r="I10" s="58"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="40"/>
@@ -1508,12 +1502,12 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="67"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="64"/>
+      <c r="W10" s="62"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -1523,10 +1517,10 @@
       <c r="C11" s="37"/>
       <c r="D11" s="38"/>
       <c r="E11" s="39"/>
-      <c r="F11" s="55"/>
+      <c r="F11" s="53"/>
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
-      <c r="I11" s="60"/>
+      <c r="I11" s="58"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="40"/>
@@ -1537,12 +1531,12 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="67"/>
+      <c r="T11" s="62"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="64"/>
+      <c r="W11" s="62"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -1552,10 +1546,10 @@
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
       <c r="E12" s="39"/>
-      <c r="F12" s="55"/>
+      <c r="F12" s="53"/>
       <c r="G12" s="38"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="60"/>
+      <c r="I12" s="58"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="40"/>
@@ -1566,14 +1560,14 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="66" t="s">
+      <c r="T12" s="62"/>
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="64"/>
+      <c r="W12" s="62"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -1583,10 +1577,10 @@
       <c r="C13" s="37"/>
       <c r="D13" s="38"/>
       <c r="E13" s="39"/>
-      <c r="F13" s="55"/>
+      <c r="F13" s="53"/>
       <c r="G13" s="38"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="50"/>
+      <c r="I13" s="49"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1597,12 +1591,12 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="67"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="64"/>
+      <c r="W13" s="62"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -1612,10 +1606,10 @@
       <c r="C14" s="37"/>
       <c r="D14" s="38"/>
       <c r="E14" s="39"/>
-      <c r="F14" s="55"/>
+      <c r="F14" s="53"/>
       <c r="G14" s="38"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="50"/>
+      <c r="I14" s="49"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="40"/>
@@ -1626,12 +1620,12 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="67"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="64"/>
+      <c r="W14" s="62"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -1641,10 +1635,10 @@
       <c r="C15" s="37"/>
       <c r="D15" s="38"/>
       <c r="E15" s="39"/>
-      <c r="F15" s="55"/>
+      <c r="F15" s="53"/>
       <c r="G15" s="38"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="50"/>
+      <c r="I15" s="49"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="40"/>
@@ -1656,11 +1650,11 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="64"/>
+      <c r="W15" s="62"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -1670,10 +1664,10 @@
       <c r="C16" s="37"/>
       <c r="D16" s="38"/>
       <c r="E16" s="39"/>
-      <c r="F16" s="55"/>
+      <c r="F16" s="53"/>
       <c r="G16" s="38"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="60"/>
+      <c r="I16" s="58"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="40"/>
@@ -1685,11 +1679,11 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="64"/>
+      <c r="W16" s="62"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -1699,10 +1693,10 @@
       <c r="C17" s="37"/>
       <c r="D17" s="38"/>
       <c r="E17" s="39"/>
-      <c r="F17" s="55"/>
+      <c r="F17" s="53"/>
       <c r="G17" s="38"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="60"/>
+      <c r="I17" s="58"/>
       <c r="J17" s="40"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1714,9 +1708,9 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="64"/>
+      <c r="U17" s="62"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="64"/>
+      <c r="W17" s="62"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -1726,10 +1720,10 @@
       <c r="C18" s="9"/>
       <c r="D18" s="38"/>
       <c r="E18" s="39"/>
-      <c r="F18" s="55"/>
+      <c r="F18" s="53"/>
       <c r="G18" s="38"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="60"/>
+      <c r="I18" s="58"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1752,11 +1746,11 @@
       <c r="B19" s="37"/>
       <c r="C19" s="9"/>
       <c r="D19" s="38"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="55"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="53"/>
       <c r="G19" s="38"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="60"/>
+      <c r="I19" s="58"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1768,13 +1762,13 @@
       <c r="R19" s="38"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="65" t="s">
+      <c r="U19" s="63" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="49"/>
+      <c r="W19" s="48"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -1787,7 +1781,7 @@
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="60"/>
+      <c r="I20" s="58"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1819,7 +1813,7 @@
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="60"/>
+      <c r="I21" s="58"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1851,7 +1845,7 @@
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="60"/>
+      <c r="I22" s="58"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="1"/>
@@ -1883,7 +1877,7 @@
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="60"/>
+      <c r="I23" s="58"/>
       <c r="J23" s="1"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -1910,7 +1904,7 @@
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="60"/>
+      <c r="I24" s="58"/>
       <c r="J24" s="1"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -1937,7 +1931,7 @@
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="60"/>
+      <c r="I25" s="58"/>
       <c r="J25" s="1"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -1949,13 +1943,13 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="65" t="s">
+      <c r="U25" s="63" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W25" s="49"/>
+      <c r="W25" s="48"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -1968,7 +1962,7 @@
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="60"/>
+      <c r="I26" s="58"/>
       <c r="J26" s="1"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -2000,7 +1994,7 @@
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="60"/>
+      <c r="I27" s="58"/>
       <c r="J27" s="1"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -2032,7 +2026,7 @@
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="60"/>
+      <c r="I28" s="58"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="10"/>
@@ -2064,7 +2058,7 @@
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="60"/>
+      <c r="I29" s="58"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="10"/>
@@ -2096,7 +2090,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="60"/>
+      <c r="I30" s="58"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2128,7 +2122,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="60"/>
+      <c r="I31" s="58"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2160,7 +2154,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="60"/>
+      <c r="I32" s="58"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2192,7 +2186,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="60"/>
+      <c r="I33" s="58"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2224,7 +2218,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="60"/>
+      <c r="I34" s="58"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2256,7 +2250,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="60"/>
+      <c r="I35" s="58"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2288,7 +2282,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="60"/>
+      <c r="I36" s="58"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2320,7 +2314,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="60"/>
+      <c r="I37" s="58"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2352,7 +2346,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="60"/>
+      <c r="I38" s="58"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2379,7 +2373,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="60"/>
+      <c r="I39" s="58"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2406,7 +2400,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="60"/>
+      <c r="I40" s="58"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2438,7 +2432,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="60"/>
+      <c r="I41" s="58"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2470,7 +2464,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="60"/>
+      <c r="I42" s="58"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2497,7 +2491,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="60"/>
+      <c r="I43" s="58"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2524,7 +2518,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="60"/>
+      <c r="I44" s="58"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2560,7 +2554,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="60"/>
+      <c r="I45" s="58"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2599,7 +2593,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="60"/>
+      <c r="I46" s="58"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2638,7 +2632,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="60"/>
+      <c r="I47" s="58"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -2677,7 +2671,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="60"/>
+      <c r="I48" s="58"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -2719,7 +2713,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="60"/>
+      <c r="I49" s="58"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -2731,9 +2725,9 @@
       <c r="R49" s="10"/>
       <c r="S49" s="4"/>
       <c r="T49" s="35"/>
-      <c r="U49" s="46"/>
-      <c r="V49" s="46"/>
-      <c r="W49" s="46"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
       <c r="X49" s="33"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2742,12 +2736,12 @@
       </c>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
-      <c r="D50" s="45"/>
+      <c r="D50" s="44"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
       <c r="H50" s="32"/>
-      <c r="I50" s="61"/>
+      <c r="I50" s="59"/>
       <c r="J50" s="32"/>
       <c r="K50" s="32"/>
       <c r="L50" s="32"/>
@@ -2756,12 +2750,12 @@
       <c r="O50" s="32"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="29"/>
-      <c r="R50" s="45"/>
+      <c r="R50" s="44"/>
       <c r="S50" s="29"/>
       <c r="T50" s="35"/>
-      <c r="U50" s="46"/>
-      <c r="V50" s="46"/>
-      <c r="W50" s="46"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="45"/>
       <c r="X50" s="33"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2775,7 +2769,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="60"/>
+      <c r="I51" s="58"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -2787,9 +2781,9 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
       <c r="T51" s="35"/>
-      <c r="U51" s="46"/>
-      <c r="V51" s="46"/>
-      <c r="W51" s="46"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="45"/>
       <c r="X51" s="33"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2803,7 +2797,7 @@
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
       <c r="H52" s="33"/>
-      <c r="I52" s="62"/>
+      <c r="I52" s="60"/>
       <c r="J52" s="33"/>
       <c r="K52" s="33"/>
       <c r="L52" s="34"/>
@@ -2815,9 +2809,9 @@
       <c r="R52" s="33"/>
       <c r="S52" s="33"/>
       <c r="T52" s="35"/>
-      <c r="U52" s="46"/>
-      <c r="V52" s="46"/>
-      <c r="W52" s="46"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="45"/>
       <c r="X52" s="33"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2831,7 +2825,7 @@
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
       <c r="H53" s="33"/>
-      <c r="I53" s="62"/>
+      <c r="I53" s="60"/>
       <c r="J53" s="33"/>
       <c r="K53" s="33"/>
       <c r="L53" s="34"/>
@@ -2843,9 +2837,9 @@
       <c r="R53" s="33"/>
       <c r="S53" s="33"/>
       <c r="T53" s="35"/>
-      <c r="U53" s="46"/>
-      <c r="V53" s="46"/>
-      <c r="W53" s="46"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="45"/>
+      <c r="W53" s="45"/>
       <c r="X53" s="33"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2859,7 +2853,7 @@
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
       <c r="H54" s="33"/>
-      <c r="I54" s="62"/>
+      <c r="I54" s="60"/>
       <c r="J54" s="33"/>
       <c r="K54" s="33"/>
       <c r="L54" s="34"/>
@@ -2871,9 +2865,9 @@
       <c r="R54" s="33"/>
       <c r="S54" s="33"/>
       <c r="T54" s="35"/>
-      <c r="U54" s="46"/>
-      <c r="V54" s="46"/>
-      <c r="W54" s="46"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
       <c r="X54" s="33"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2887,7 +2881,7 @@
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
-      <c r="I55" s="62"/>
+      <c r="I55" s="60"/>
       <c r="J55" s="33"/>
       <c r="K55" s="33"/>
       <c r="L55" s="34"/>
@@ -2899,9 +2893,9 @@
       <c r="R55" s="33"/>
       <c r="S55" s="33"/>
       <c r="T55" s="36"/>
-      <c r="U55" s="46"/>
-      <c r="V55" s="46"/>
-      <c r="W55" s="46"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="45"/>
+      <c r="W55" s="45"/>
       <c r="X55" s="33"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2916,6 +2910,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2927,13 +2928,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2944,8 +2938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:M17"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="H4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2958,7 +2952,7 @@
     <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
     <col min="7" max="7" width="17" style="20" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="63" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="61" customWidth="1"/>
     <col min="10" max="10" width="53" style="20" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
@@ -2977,46 +2971,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="47"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="57"/>
+      <c r="I2" s="55"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="22"/>
@@ -3041,7 +3035,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="58"/>
+      <c r="I3" s="56"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -3058,100 +3052,100 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="48"/>
+      <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
-      <c r="B5" s="53" t="s">
+      <c r="A5" s="69"/>
+      <c r="B5" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
-      <c r="K5" s="53" t="s">
+      <c r="J5" s="64"/>
+      <c r="K5" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="53" t="s">
+      <c r="L5" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
-      <c r="W5" s="48"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
+      <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -3176,11 +3170,11 @@
         <v>67</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="58" t="s">
         <v>100</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="52" t="s">
+      <c r="K6" s="50" t="s">
         <v>69</v>
       </c>
       <c r="L6" s="1" t="s">
@@ -3203,14 +3197,14 @@
         <v>24</v>
       </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="66" t="s">
+      <c r="T6" s="52"/>
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="54"/>
+      <c r="W6" s="52"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -3235,7 +3229,7 @@
         <v>64</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="60" t="s">
+      <c r="I7" s="58" t="s">
         <v>99</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -3264,12 +3258,12 @@
         <v>103</v>
       </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="67"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="54"/>
+      <c r="W7" s="52"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -3296,7 +3290,7 @@
       <c r="H8" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="I8" s="60" t="s">
+      <c r="I8" s="58" t="s">
         <v>90</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -3323,12 +3317,12 @@
         <v>25</v>
       </c>
       <c r="S8" s="4"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="67"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="54"/>
+      <c r="W8" s="52"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -3355,7 +3349,7 @@
       <c r="H9" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="I9" s="50" t="s">
+      <c r="I9" s="49" t="s">
         <v>85</v>
       </c>
       <c r="J9" s="40" t="s">
@@ -3382,12 +3376,12 @@
         <v>25</v>
       </c>
       <c r="S9" s="4"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="67"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="54"/>
+      <c r="W9" s="52"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -3412,7 +3406,7 @@
         <v>64</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="60" t="s">
+      <c r="I10" s="58" t="s">
         <v>81</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -3439,12 +3433,12 @@
         <v>24</v>
       </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="67"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="54"/>
+      <c r="W10" s="52"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -3462,12 +3456,12 @@
       <c r="E11" s="39">
         <v>868183033878799</v>
       </c>
-      <c r="F11" s="55"/>
+      <c r="F11" s="53"/>
       <c r="G11" s="38" t="s">
         <v>64</v>
       </c>
       <c r="H11" s="38"/>
-      <c r="I11" s="60" t="s">
+      <c r="I11" s="58" t="s">
         <v>77</v>
       </c>
       <c r="J11" s="1"/>
@@ -3494,12 +3488,12 @@
         <v>24</v>
       </c>
       <c r="S11" s="4"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="67"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="54"/>
+      <c r="W11" s="52"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -3524,7 +3518,7 @@
         <v>64</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="60" t="s">
+      <c r="I12" s="58" t="s">
         <v>94</v>
       </c>
       <c r="J12" s="1"/>
@@ -3549,14 +3543,14 @@
         <v>25</v>
       </c>
       <c r="S12" s="4"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="66" t="s">
+      <c r="T12" s="52"/>
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="54"/>
+      <c r="W12" s="52"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -3583,7 +3577,7 @@
       <c r="H13" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="I13" s="50" t="s">
+      <c r="I13" s="49" t="s">
         <v>87</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -3612,12 +3606,12 @@
         <v>24</v>
       </c>
       <c r="S13" s="4"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="67"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="54"/>
+      <c r="W13" s="52"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -3644,7 +3638,7 @@
       <c r="H14" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="I14" s="50" t="s">
+      <c r="I14" s="49" t="s">
         <v>93</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -3673,12 +3667,12 @@
         <v>24</v>
       </c>
       <c r="S14" s="4"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="67"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="54"/>
+      <c r="W14" s="52"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -3703,7 +3697,7 @@
         <v>64</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="50" t="s">
+      <c r="I15" s="49" t="s">
         <v>95</v>
       </c>
       <c r="J15" s="1"/>
@@ -3729,11 +3723,11 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="54"/>
+      <c r="W15" s="52"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -3758,7 +3752,7 @@
         <v>64</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="60" t="s">
+      <c r="I16" s="58" t="s">
         <v>97</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -3786,11 +3780,11 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="54"/>
+      <c r="W16" s="52"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -3815,7 +3809,7 @@
         <v>67</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="60" t="s">
+      <c r="I17" s="58" t="s">
         <v>101</v>
       </c>
       <c r="J17" s="40"/>
@@ -3841,9 +3835,9 @@
       </c>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="54"/>
+      <c r="U17" s="52"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="54"/>
+      <c r="W17" s="52"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -3853,10 +3847,10 @@
       <c r="C18" s="9"/>
       <c r="D18" s="38"/>
       <c r="E18" s="39"/>
-      <c r="F18" s="55"/>
+      <c r="F18" s="53"/>
       <c r="G18" s="38"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="60"/>
+      <c r="I18" s="58"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -3879,11 +3873,11 @@
       <c r="B19" s="37"/>
       <c r="C19" s="9"/>
       <c r="D19" s="38"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="55"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="53"/>
       <c r="G19" s="38"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="60"/>
+      <c r="I19" s="58"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -3895,13 +3889,13 @@
       <c r="R19" s="38"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="53" t="s">
+      <c r="U19" s="51" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="49"/>
+      <c r="W19" s="48"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -3914,7 +3908,7 @@
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="60"/>
+      <c r="I20" s="58"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -3946,7 +3940,7 @@
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="60"/>
+      <c r="I21" s="58"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -3978,7 +3972,7 @@
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="60"/>
+      <c r="I22" s="58"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="1"/>
@@ -4010,7 +4004,7 @@
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="60"/>
+      <c r="I23" s="58"/>
       <c r="J23" s="1"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -4037,7 +4031,7 @@
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="60"/>
+      <c r="I24" s="58"/>
       <c r="J24" s="1"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -4064,7 +4058,7 @@
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="60"/>
+      <c r="I25" s="58"/>
       <c r="J25" s="1"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -4076,13 +4070,13 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="53" t="s">
+      <c r="U25" s="51" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W25" s="49"/>
+      <c r="W25" s="48"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -4095,7 +4089,7 @@
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="60"/>
+      <c r="I26" s="58"/>
       <c r="J26" s="1"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -4127,7 +4121,7 @@
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="60"/>
+      <c r="I27" s="58"/>
       <c r="J27" s="1"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -4159,7 +4153,7 @@
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="60"/>
+      <c r="I28" s="58"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="10"/>
@@ -4191,7 +4185,7 @@
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="60"/>
+      <c r="I29" s="58"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="10"/>
@@ -4223,7 +4217,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="60"/>
+      <c r="I30" s="58"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -4255,7 +4249,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="60"/>
+      <c r="I31" s="58"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -4287,7 +4281,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="60"/>
+      <c r="I32" s="58"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -4319,7 +4313,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="60"/>
+      <c r="I33" s="58"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -4351,7 +4345,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="60"/>
+      <c r="I34" s="58"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -4383,7 +4377,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="60"/>
+      <c r="I35" s="58"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -4415,7 +4409,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="60"/>
+      <c r="I36" s="58"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -4447,7 +4441,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="60"/>
+      <c r="I37" s="58"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -4479,7 +4473,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="60"/>
+      <c r="I38" s="58"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -4506,7 +4500,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="60"/>
+      <c r="I39" s="58"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -4533,7 +4527,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="60"/>
+      <c r="I40" s="58"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -4565,7 +4559,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="60"/>
+      <c r="I41" s="58"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -4597,7 +4591,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="60"/>
+      <c r="I42" s="58"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -4624,7 +4618,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="60"/>
+      <c r="I43" s="58"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -4651,7 +4645,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="60"/>
+      <c r="I44" s="58"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -4687,7 +4681,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="60"/>
+      <c r="I45" s="58"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -4726,7 +4720,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="60"/>
+      <c r="I46" s="58"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -4765,7 +4759,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="60"/>
+      <c r="I47" s="58"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -4804,7 +4798,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="60"/>
+      <c r="I48" s="58"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -4846,7 +4840,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="60"/>
+      <c r="I49" s="58"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -4858,9 +4852,9 @@
       <c r="R49" s="10"/>
       <c r="S49" s="4"/>
       <c r="T49" s="35"/>
-      <c r="U49" s="46"/>
-      <c r="V49" s="46"/>
-      <c r="W49" s="46"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
       <c r="X49" s="33"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4869,12 +4863,12 @@
       </c>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
-      <c r="D50" s="45"/>
+      <c r="D50" s="44"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
       <c r="H50" s="32"/>
-      <c r="I50" s="61"/>
+      <c r="I50" s="59"/>
       <c r="J50" s="32"/>
       <c r="K50" s="32"/>
       <c r="L50" s="32"/>
@@ -4883,12 +4877,12 @@
       <c r="O50" s="32"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="29"/>
-      <c r="R50" s="45"/>
+      <c r="R50" s="44"/>
       <c r="S50" s="29"/>
       <c r="T50" s="35"/>
-      <c r="U50" s="46"/>
-      <c r="V50" s="46"/>
-      <c r="W50" s="46"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="45"/>
       <c r="X50" s="33"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4902,7 +4896,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="60"/>
+      <c r="I51" s="58"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -4914,9 +4908,9 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
       <c r="T51" s="35"/>
-      <c r="U51" s="46"/>
-      <c r="V51" s="46"/>
-      <c r="W51" s="46"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="45"/>
       <c r="X51" s="33"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4930,7 +4924,7 @@
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
       <c r="H52" s="33"/>
-      <c r="I52" s="62"/>
+      <c r="I52" s="60"/>
       <c r="J52" s="33"/>
       <c r="K52" s="33"/>
       <c r="L52" s="34"/>
@@ -4942,9 +4936,9 @@
       <c r="R52" s="33"/>
       <c r="S52" s="33"/>
       <c r="T52" s="35"/>
-      <c r="U52" s="46"/>
-      <c r="V52" s="46"/>
-      <c r="W52" s="46"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="45"/>
       <c r="X52" s="33"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4958,7 +4952,7 @@
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
       <c r="H53" s="33"/>
-      <c r="I53" s="62"/>
+      <c r="I53" s="60"/>
       <c r="J53" s="33"/>
       <c r="K53" s="33"/>
       <c r="L53" s="34"/>
@@ -4970,9 +4964,9 @@
       <c r="R53" s="33"/>
       <c r="S53" s="33"/>
       <c r="T53" s="35"/>
-      <c r="U53" s="46"/>
-      <c r="V53" s="46"/>
-      <c r="W53" s="46"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="45"/>
+      <c r="W53" s="45"/>
       <c r="X53" s="33"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4986,7 +4980,7 @@
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
       <c r="H54" s="33"/>
-      <c r="I54" s="62"/>
+      <c r="I54" s="60"/>
       <c r="J54" s="33"/>
       <c r="K54" s="33"/>
       <c r="L54" s="34"/>
@@ -4998,9 +4992,9 @@
       <c r="R54" s="33"/>
       <c r="S54" s="33"/>
       <c r="T54" s="35"/>
-      <c r="U54" s="46"/>
-      <c r="V54" s="46"/>
-      <c r="W54" s="46"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
       <c r="X54" s="33"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5014,7 +5008,7 @@
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
-      <c r="I55" s="62"/>
+      <c r="I55" s="60"/>
       <c r="J55" s="33"/>
       <c r="K55" s="33"/>
       <c r="L55" s="34"/>
@@ -5026,9 +5020,9 @@
       <c r="R55" s="33"/>
       <c r="S55" s="33"/>
       <c r="T55" s="36"/>
-      <c r="U55" s="46"/>
-      <c r="V55" s="46"/>
-      <c r="W55" s="46"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="45"/>
+      <c r="W55" s="45"/>
       <c r="X55" s="33"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5043,6 +5037,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5054,13 +5055,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5072,7 +5066,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5104,43 +5098,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="47"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -5185,472 +5179,842 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="48"/>
+      <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
-      <c r="B5" s="44" t="s">
+      <c r="A5" s="69"/>
+      <c r="B5" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="44" t="s">
+      <c r="H5" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="44" t="s">
+      <c r="I5" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
-      <c r="K5" s="44" t="s">
+      <c r="J5" s="64"/>
+      <c r="K5" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="44" t="s">
+      <c r="L5" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
-      <c r="W5" s="48"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
+      <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="37">
+        <v>44384</v>
+      </c>
+      <c r="C6" s="37">
+        <v>44389</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="39">
+        <v>868345035633155</v>
+      </c>
       <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
+      <c r="G6" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="I6" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K6" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="N6" s="41"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="66" t="s">
+      <c r="O6" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="T6" s="42"/>
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="43"/>
+      <c r="W6" s="42"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="50"/>
+      <c r="B7" s="37">
+        <v>44384</v>
+      </c>
+      <c r="C7" s="37">
+        <v>44389</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="39">
+        <v>868345035601244</v>
+      </c>
+      <c r="F7" s="53"/>
+      <c r="G7" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="N7" s="41"/>
       <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="P7" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="67"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="43"/>
+      <c r="W7" s="42"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="B8" s="37">
+        <v>44384</v>
+      </c>
+      <c r="C8" s="37">
+        <v>44389</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="39">
+        <v>860157040197961</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>67</v>
+      </c>
       <c r="H8" s="38"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="I8" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="4"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="67"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="43"/>
+      <c r="W8" s="42"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="B9" s="37">
+        <v>44384</v>
+      </c>
+      <c r="C9" s="37">
+        <v>44389</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="39">
+        <v>868183034747118</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="38"/>
+      <c r="I9" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>103</v>
+      </c>
       <c r="S9" s="4"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="67"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="43"/>
+      <c r="W9" s="42"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="1"/>
+      <c r="B10" s="37">
+        <v>44384</v>
+      </c>
+      <c r="C10" s="37">
+        <v>44389</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="39">
+        <v>868183034607437</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
+      <c r="M10" s="40" t="s">
+        <v>73</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="O10" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="67"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="43"/>
+      <c r="W10" s="42"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
+      <c r="B11" s="37">
+        <v>44384</v>
+      </c>
+      <c r="C11" s="37">
+        <v>44389</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="39">
+        <v>860157040209527</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" s="40"/>
+      <c r="L11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S11" s="4"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="67"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="43"/>
+      <c r="W11" s="42"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="1"/>
+      <c r="B12" s="37">
+        <v>44384</v>
+      </c>
+      <c r="C12" s="37">
+        <v>44389</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="39">
+        <v>868183038069469</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="M12" s="40" t="s">
+        <v>83</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="38"/>
+      <c r="O12" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S12" s="4"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="66" t="s">
+      <c r="T12" s="42"/>
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="43"/>
+      <c r="W12" s="42"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="40"/>
+      <c r="B13" s="37">
+        <v>44384</v>
+      </c>
+      <c r="C13" s="37">
+        <v>44389</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="39">
+        <v>868183033878799</v>
+      </c>
+      <c r="F13" s="53"/>
+      <c r="G13" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="38"/>
+      <c r="I13" s="58" t="s">
+        <v>77</v>
+      </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M13" s="40" t="s">
+        <v>72</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="10"/>
+      <c r="O13" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S13" s="4"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="67"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="43"/>
+      <c r="W13" s="42"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="B14" s="37">
+        <v>44384</v>
+      </c>
+      <c r="C14" s="37">
+        <v>44389</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="39">
+        <v>868183035927834</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="1"/>
+      <c r="I14" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
+      <c r="M14" s="40" t="s">
+        <v>73</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="38"/>
+      <c r="O14" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S14" s="4"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="67"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="43"/>
+      <c r="W14" s="42"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
+      <c r="B15" s="37">
+        <v>44384</v>
+      </c>
+      <c r="C15" s="37">
+        <v>44389</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="39">
+        <v>868183038072455</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="38"/>
+      <c r="O15" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="43"/>
+      <c r="W15" s="42"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
+      <c r="B16" s="37">
+        <v>44384</v>
+      </c>
+      <c r="C16" s="37">
+        <v>44389</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="39">
+        <v>868183034774005</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="38"/>
+      <c r="O16" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="43"/>
+      <c r="W16" s="42"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
+      <c r="B17" s="37">
+        <v>44384</v>
+      </c>
+      <c r="C17" s="37">
+        <v>44389</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="39">
+        <v>868183035913560</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="40"/>
+      <c r="I17" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40" t="s">
+        <v>73</v>
+      </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="38"/>
+      <c r="O17" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="43"/>
+      <c r="U17" s="42"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="43"/>
+      <c r="W17" s="42"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
+      <c r="B18" s="37">
+        <v>44384</v>
+      </c>
+      <c r="C18" s="37">
+        <v>44389</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="39">
+        <v>868183035934210</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="10"/>
+      <c r="I18" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40" t="s">
+        <v>92</v>
+      </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="10"/>
+      <c r="O18" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R18" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S18" s="4"/>
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
@@ -5661,32 +6025,58 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
+      <c r="B19" s="37">
+        <v>44384</v>
+      </c>
+      <c r="C19" s="37">
+        <v>44389</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="39">
+        <v>868183037817082</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>67</v>
+      </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="I19" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="J19" s="40"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="L19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M19" s="40" t="s">
+        <v>73</v>
+      </c>
       <c r="N19" s="1"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="10"/>
+      <c r="O19" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="44" t="s">
+      <c r="U19" s="43" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="49"/>
+      <c r="W19" s="48"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -5716,7 +6106,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -5748,7 +6138,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -5780,7 +6170,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -5861,13 +6251,13 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="44" t="s">
+      <c r="U25" s="43" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W25" s="49"/>
+      <c r="W25" s="48"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -6057,7 +6447,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -6185,7 +6575,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -6217,7 +6607,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -6249,7 +6639,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -6643,9 +7033,9 @@
       <c r="R49" s="10"/>
       <c r="S49" s="4"/>
       <c r="T49" s="35"/>
-      <c r="U49" s="46"/>
-      <c r="V49" s="46"/>
-      <c r="W49" s="46"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
       <c r="X49" s="33"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6654,10 +7044,10 @@
       </c>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
-      <c r="D50" s="45"/>
+      <c r="D50" s="44"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
       <c r="J50" s="32"/>
@@ -6668,12 +7058,12 @@
       <c r="O50" s="32"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="29"/>
-      <c r="R50" s="45"/>
+      <c r="R50" s="44"/>
       <c r="S50" s="29"/>
       <c r="T50" s="35"/>
-      <c r="U50" s="46"/>
-      <c r="V50" s="46"/>
-      <c r="W50" s="46"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="45"/>
       <c r="X50" s="33"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6699,9 +7089,9 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
       <c r="T51" s="35"/>
-      <c r="U51" s="46"/>
-      <c r="V51" s="46"/>
-      <c r="W51" s="46"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="45"/>
       <c r="X51" s="33"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6727,9 +7117,9 @@
       <c r="R52" s="33"/>
       <c r="S52" s="33"/>
       <c r="T52" s="35"/>
-      <c r="U52" s="46"/>
-      <c r="V52" s="46"/>
-      <c r="W52" s="46"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="45"/>
       <c r="X52" s="33"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6755,9 +7145,9 @@
       <c r="R53" s="33"/>
       <c r="S53" s="33"/>
       <c r="T53" s="35"/>
-      <c r="U53" s="46"/>
-      <c r="V53" s="46"/>
-      <c r="W53" s="46"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="45"/>
+      <c r="W53" s="45"/>
       <c r="X53" s="33"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6783,9 +7173,9 @@
       <c r="R54" s="33"/>
       <c r="S54" s="33"/>
       <c r="T54" s="35"/>
-      <c r="U54" s="46"/>
-      <c r="V54" s="46"/>
-      <c r="W54" s="46"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
       <c r="X54" s="33"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6811,9 +7201,9 @@
       <c r="R55" s="33"/>
       <c r="S55" s="33"/>
       <c r="T55" s="36"/>
-      <c r="U55" s="46"/>
-      <c r="V55" s="46"/>
-      <c r="W55" s="46"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="45"/>
+      <c r="W55" s="45"/>
       <c r="X55" s="33"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6828,6 +7218,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6839,13 +7236,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
